--- a/账号密码.xlsx
+++ b/账号密码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7260" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="30720" windowHeight="13740" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机1账号密码信息" sheetId="1" r:id="rId1"/>
@@ -770,9 +770,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -837,16 +837,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,22 +852,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,14 +862,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,9 +875,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,10 +921,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -951,9 +951,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,13 +972,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -1036,7 +1036,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,19 +1114,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,151 +1216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,15 +1282,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1302,21 +1293,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,9 +1314,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,19 +1341,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,10 +1387,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1399,16 +1399,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1417,119 +1417,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1596,9 +1596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1608,9 +1605,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1685,9 +1679,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2059,150 +2050,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="47">
         <v>123456</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="47">
         <v>123456</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="53" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2224,7 +2215,7 @@
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:A62"/>
     </sheetView>
   </sheetViews>
@@ -2566,81 +2557,81 @@
     </row>
     <row r="37" ht="43.2" spans="1:3">
       <c r="A37" s="20"/>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" ht="28.8" spans="1:3">
       <c r="A38" s="20"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>205</v>
       </c>
       <c r="C38" s="21"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="20"/>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="24"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="23"/>
     </row>
     <row r="41" ht="28.8" spans="1:3">
       <c r="A41" s="20"/>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="20"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="24"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="23"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="20"/>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="23"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="20"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="24"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" ht="28.8" spans="1:3">
       <c r="A45" s="20"/>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C45" s="24"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="24"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="20"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="20"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="24"/>
-    </row>
-    <row r="49" ht="28.8" spans="1:3">
+      <c r="B48" s="3"/>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="20"/>
       <c r="B49" s="21" t="s">
         <v>212</v>
@@ -2680,7 +2671,7 @@
       <c r="B54" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2689,7 +2680,7 @@
       <c r="B55" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="24"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="20"/>
@@ -2729,7 +2720,7 @@
     </row>
     <row r="62" ht="409.5" spans="1:3">
       <c r="A62" s="20"/>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C62" s="21"/>
@@ -2770,150 +2761,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="47">
         <v>123456</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="47">
         <v>123456</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="53" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2953,7 +2944,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3110,33 +3101,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="58" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3169,7 +3160,7 @@
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
@@ -3180,7 +3171,7 @@
       <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
@@ -3258,155 +3249,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="44">
         <v>123456</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="47">
         <v>123456</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="47">
         <v>123456</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="53" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3438,142 +3429,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="36" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="36" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="36" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="36" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="36" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="36" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="36" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="36" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="36" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="36" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="37" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" ht="15.6" spans="1:1">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="51" ht="15.6" spans="1:1">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="53" ht="22.2" spans="1:1">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3583,57 +3574,57 @@
       </c>
     </row>
     <row r="57" ht="17.4" spans="1:1">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="40" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="1:1">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="64" ht="15.6" spans="1:1">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="67" ht="15.6" spans="1:1">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="70" ht="15.6" spans="1:1">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="1:1">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="76" ht="15.6" spans="1:1">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="79" ht="15.6" spans="1:1">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="82" ht="15.6" spans="1:1">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="38" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="85" ht="15.6" spans="1:1">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="36" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3648,8 +3639,8 @@
   <sheetPr/>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3661,7 +3652,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -3670,14 +3661,14 @@
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="27"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3686,7 +3677,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -3695,7 +3686,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="8" t="s">
         <v>125</v>
       </c>
@@ -3704,7 +3695,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -3713,29 +3704,29 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3763,52 +3754,52 @@
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="32"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="32"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>6379</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>123456</v>
       </c>
     </row>
@@ -3881,13 +3872,13 @@
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="37"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33" s="37"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34"/>

--- a/账号密码.xlsx
+++ b/账号密码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" firstSheet="5" activeTab="8"/>
+    <workbookView windowWidth="30720" windowHeight="13740" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机1账号密码信息" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="225">
   <si>
     <t>虚拟机1</t>
   </si>
@@ -722,6 +722,9 @@
 ②后台启动 ./redis-server redis.conf 配置文件路径 &amp; </t>
   </si>
   <si>
+    <t>启动redis</t>
+  </si>
+  <si>
     <t>前台启动
 启动 Redis 的服务器端：切换到 src 目录下执行 redis-server 程序</t>
   </si>
@@ -730,7 +733,8 @@
 src目录下执行 ./redis-server redis.conf配置文件路径 &amp;</t>
   </si>
   <si>
-    <t>方法1：切换到 redis-4.0.13/src/ 目录，执行 ./redis-cli shutdown</t>
+    <t>方法1：切换到 redis-4.0.13/src/ 目录，执行 
+redis-cli -h 127.0.0.1 -p 6379 -a 密码 shutdown</t>
   </si>
   <si>
     <t>关闭 Redis</t>
@@ -769,10 +773,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -837,8 +841,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,8 +885,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,37 +933,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -912,24 +940,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -952,22 +964,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,7 +1040,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1070,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,19 +1094,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,19 +1184,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,73 +1208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,37 +1220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,6 +1286,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1293,6 +1321,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,41 +1368,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1364,21 +1383,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1387,10 +1391,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1399,16 +1403,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1417,115 +1421,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2215,8 +2219,8 @@
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2645,20 +2649,22 @@
       <c r="B50" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="21"/>
+      <c r="C50" s="21" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="51" ht="28.8" spans="1:3">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" ht="28.8" spans="1:3">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2669,16 +2675,16 @@
     <row r="54" ht="28.8" spans="1:3">
       <c r="A54" s="20"/>
       <c r="B54" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" ht="57.6" spans="1:3">
       <c r="A55" s="20"/>
       <c r="B55" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C55" s="24"/>
     </row>
@@ -2695,10 +2701,10 @@
     <row r="58" ht="28.8" spans="1:3">
       <c r="A58" s="20"/>
       <c r="B58" s="21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2714,14 +2720,14 @@
     <row r="61" ht="28.8" spans="1:3">
       <c r="A61" s="20"/>
       <c r="B61" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" s="21"/>
     </row>
     <row r="62" ht="409.5" spans="1:3">
       <c r="A62" s="20"/>
       <c r="B62" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C62" s="21"/>
     </row>
@@ -3639,7 +3645,7 @@
   <sheetPr/>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
